--- a/Pertemuan 10-14/Model_Drift2.xlsx
+++ b/Pertemuan 10-14/Model_Drift2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -93,6 +93,165 @@
   </si>
   <si>
     <t xml:space="preserve">Parameter yang tidak signifikan adalah ar3, ma3, ma7, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(2,0,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, ar3, ma1, NA, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(4,0,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ma1, ma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar3, ar4, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(5,0,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ar3, ar4, ar5, ma2, ma3, ma4, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma1, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(6,0,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ar3, ar5, ar6, ma2, ma3, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar4, ma1, ma4, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, ma2, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(2,0,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ma2, ma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(3,0,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, ar2, NA, NA, ma2, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar4, ma1, ma4, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar2, ar3, ma2, ma3, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ar3, ar4, ar5, ar6, ma1, ma2, ma3, ma4, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma7, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar3, ma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ma1, ma2, ma4, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma5, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, NA, ar4, ar5, ma2, NA, ma4, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, ma1, NA, ma6, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ma1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma2, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, ma3, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ma1, ma2, ma4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar3, ma3, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ar3, ar4, ma1, ma2, ma3, ma4, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, ar2, NA, NA, NA, ma2, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, ar5, NA, NA, NA, ma5, NA, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, ar5, ar6, NA, NA, NA, NA, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, NA, NA, ma7, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, ar2, NA, ma2, ma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, NA, ma4, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, ar2, ar3, NA, NA, ma2, ma3, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar4, NA, NA, ma4, NA, ma6, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma3, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ar3, ma2, ma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ma1, ma4, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, ar4, NA, NA, ma4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, NA, ma1, NA, NA, ma5, intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ar3, ar4, ar5, ma1, ma2, ma3, ma4, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ma6, intercept</t>
   </si>
 </sst>
 </file>
@@ -569,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9989.90113549546</v>
+        <v>6959.31243810673</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -583,27 +742,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9986.00712804989</v>
+        <v>6961.87998545117</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>-9984.05911670008</v>
+        <v>6961.89102644517</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -611,55 +770,55 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-9982.83498657887</v>
+        <v>6965.88580798573</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>-9992.79348040314</v>
+        <v>6960.74924832605</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-9993.19774256683</v>
+        <v>6960.30668184591</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.86925895634</v>
+        <v>6961.8779756917</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9989.90113549546</v>
+        <v>-1876.33672020126</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -709,38 +868,38 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9986.00712804989</v>
+        <v>-1872.98326909311</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B4" t="n">
-        <v>-9984.05911670008</v>
+        <v>-1872.83656464792</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-9982.83498657887</v>
+        <v>-1869.01844005117</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -751,27 +910,27 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>-9992.79348040314</v>
+        <v>-1869.47005606242</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-9993.19774256683</v>
+        <v>-1864.31191254065</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -779,13 +938,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.86925895634</v>
+        <v>-1870.18100388319</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9989.90113549546</v>
+        <v>-744.109371177041</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -835,13 +994,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9986.00712804989</v>
+        <v>-740.463610011165</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -849,27 +1008,27 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-9984.05911670008</v>
+        <v>-738.455350444124</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-9982.83498657887</v>
+        <v>-736.670982653304</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -877,27 +1036,27 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>-9992.79348040314</v>
+        <v>-735.315611979071</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-9993.19774256683</v>
+        <v>-730.65933990903</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -905,13 +1064,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.86925895634</v>
+        <v>-733.615615464844</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9989.90113549546</v>
+        <v>-13971.8225167982</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -961,41 +1120,41 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9986.00712804989</v>
+        <v>-13970.1106018643</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B4" t="n">
-        <v>-9984.05911670008</v>
+        <v>-13966.5695199915</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-9982.83498657887</v>
+        <v>-13973.8537664537</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1003,27 +1162,27 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>-9992.79348040314</v>
+        <v>-13972.4901410052</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-9993.19774256683</v>
+        <v>-13968.5553980964</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -1031,13 +1190,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.86925895634</v>
+        <v>-13970.9128589022</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9989.90113549546</v>
+        <v>6187.29084083871</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1087,41 +1246,41 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9986.00712804989</v>
+        <v>6190.89325417205</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B4" t="n">
-        <v>-9984.05911670008</v>
+        <v>6192.87850474425</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-9982.83498657887</v>
+        <v>6177.24127361779</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1129,27 +1288,27 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>-9992.79348040314</v>
+        <v>6180.73324476422</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-9993.19774256683</v>
+        <v>6182.7502004068</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1157,13 +1316,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.86925895634</v>
+        <v>6164.4723456253</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-9989.90113549546</v>
+        <v>-8933.89719060704</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1213,41 +1372,41 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-9986.00712804989</v>
+        <v>-8931.42107184697</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B4" t="n">
-        <v>-9984.05911670008</v>
+        <v>-8932.56951777845</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>-9982.83498657887</v>
+        <v>-8929.09497303372</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1255,27 +1414,27 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>-9992.79348040314</v>
+        <v>-8926.06435605311</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-9993.19774256683</v>
+        <v>-8925.99824776606</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -1283,13 +1442,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>-9988.86925895634</v>
+        <v>-8928.54494810254</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
